--- a/data/trans_orig/RUIDO_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>20415</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12871</v>
+        <v>13198</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30975</v>
+        <v>31975</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07929596899223421</v>
+        <v>0.07929596899223419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04999472965689222</v>
+        <v>0.05126256723719452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1203135753872801</v>
+        <v>0.1241992199464341</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -762,19 +762,19 @@
         <v>27456</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20214</v>
+        <v>20821</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36097</v>
+        <v>36029</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07361047338266422</v>
+        <v>0.0736104733826642</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05419505790031337</v>
+        <v>0.0558228958930759</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0967780957833338</v>
+        <v>0.09659647052188172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -783,19 +783,19 @@
         <v>47871</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36976</v>
+        <v>37464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59264</v>
+        <v>60725</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07593225285933755</v>
+        <v>0.07593225285933752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05865052694870029</v>
+        <v>0.05942463258968688</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09400474807051896</v>
+        <v>0.0963221199804826</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>106504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92021</v>
+        <v>91078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122334</v>
+        <v>120367</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4136868210841741</v>
+        <v>0.413686821084174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.35743101128822</v>
+        <v>0.3537693244067143</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4751751189832577</v>
+        <v>0.4675343426459604</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>298</v>
@@ -833,19 +833,19 @@
         <v>164615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>149970</v>
+        <v>150449</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>178267</v>
+        <v>179659</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4413430322578582</v>
+        <v>0.4413430322578581</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4020785741170025</v>
+        <v>0.4033616028778775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4779442952093264</v>
+        <v>0.481676892316975</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>425</v>
@@ -854,19 +854,19 @@
         <v>271119</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>251384</v>
+        <v>250775</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292131</v>
+        <v>290463</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4300490962643944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3987454997346749</v>
+        <v>0.3977796992025054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4633771638331072</v>
+        <v>0.4607316143880023</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>61080</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48943</v>
+        <v>49439</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74262</v>
+        <v>74164</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2372505541851404</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1901044050293819</v>
+        <v>0.1920311638462978</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2884512381873558</v>
+        <v>0.2880696107863373</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>124</v>
@@ -904,19 +904,19 @@
         <v>69870</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59296</v>
+        <v>58949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82657</v>
+        <v>82712</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1873268181323807</v>
+        <v>0.1873268181323806</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1589757905373905</v>
+        <v>0.1580468423869456</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2216086840690273</v>
+        <v>0.2217545139081438</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>202</v>
@@ -925,19 +925,19 @@
         <v>130951</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>113926</v>
+        <v>115126</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>147511</v>
+        <v>147745</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2077141183302821</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1807093367510052</v>
+        <v>0.1826119445972315</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2339816109593248</v>
+        <v>0.2343534453409497</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>29482</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21505</v>
+        <v>21072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40252</v>
+        <v>39598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1145134570560712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08352895032362224</v>
+        <v>0.08184708164418103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1563499325014684</v>
+        <v>0.1538066978354721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -975,19 +975,19 @@
         <v>54362</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44076</v>
+        <v>44321</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66222</v>
+        <v>66257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1457464491425391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1181690469591381</v>
+        <v>0.1188279933251116</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1775460128685271</v>
+        <v>0.1776388330859606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -996,19 +996,19 @@
         <v>83843</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70334</v>
+        <v>70043</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98308</v>
+        <v>99145</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.132991867132239</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1115643093444755</v>
+        <v>0.1111019014829843</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1559362964895837</v>
+        <v>0.157264151186827</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>39970</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30698</v>
+        <v>29824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50875</v>
+        <v>50789</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1552531986823801</v>
+        <v>0.15525319868238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1192363572996214</v>
+        <v>0.1158422573118117</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1976111886381248</v>
+        <v>0.1972763356817467</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>98</v>
@@ -1046,19 +1046,19 @@
         <v>56684</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>46552</v>
+        <v>46454</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67978</v>
+        <v>68428</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1519732270845578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1248097685641631</v>
+        <v>0.1245447597924195</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1822519387013451</v>
+        <v>0.1834592356138234</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>150</v>
@@ -1067,19 +1067,19 @@
         <v>96654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>82476</v>
+        <v>82211</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>111519</v>
+        <v>112582</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1533126654137471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1308239604040955</v>
+        <v>0.1304023910596355</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.17689157657366</v>
+        <v>0.1785777829543589</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>84517</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62544</v>
+        <v>61898</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117490</v>
+        <v>117859</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09594507495739091</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07100131288108484</v>
+        <v>0.07026824789899262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1333769020032747</v>
+        <v>0.1337960236881771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -1192,19 +1192,19 @@
         <v>83110</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68026</v>
+        <v>67387</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102871</v>
+        <v>104223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1017329602976114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08326930101707258</v>
+        <v>0.08248733812596913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1259227648685688</v>
+        <v>0.1275776048642108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -1213,19 +1213,19 @@
         <v>167626</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139238</v>
+        <v>137736</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>202410</v>
+        <v>201278</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09873001529321433</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08200957307641429</v>
+        <v>0.08112514795270651</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1192171083933957</v>
+        <v>0.1185504612472146</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>211390</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>182035</v>
+        <v>182845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>240740</v>
+        <v>242221</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2399738723944806</v>
+        <v>0.2399738723944807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2066498544279544</v>
+        <v>0.207569453953105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2732919851826275</v>
+        <v>0.2749732676326337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>328</v>
@@ -1263,19 +1263,19 @@
         <v>243034</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>220346</v>
+        <v>219193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>270005</v>
+        <v>269902</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2974936703153845</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2697217280768454</v>
+        <v>0.2683103293756972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3305085136717998</v>
+        <v>0.330382635392388</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>517</v>
@@ -1284,19 +1284,19 @@
         <v>454424</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>417187</v>
+        <v>417345</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>498210</v>
+        <v>495390</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2676505100474712</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.245718306937719</v>
+        <v>0.2458115548189686</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.293439943167344</v>
+        <v>0.2917787849206228</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>350758</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>318878</v>
+        <v>314277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>382862</v>
+        <v>380871</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3981863503685867</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3619956112449567</v>
+        <v>0.3567727895107977</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4346318189481178</v>
+        <v>0.4323721736484971</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>416</v>
@@ -1334,19 +1334,19 @@
         <v>279277</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>256732</v>
+        <v>254620</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>303808</v>
+        <v>305465</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3418577416442607</v>
+        <v>0.3418577416442608</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3142616495701138</v>
+        <v>0.3116766500372561</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3718863722135491</v>
+        <v>0.3739151420016718</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>763</v>
@@ -1355,19 +1355,19 @@
         <v>630034</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>588355</v>
+        <v>590876</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>673149</v>
+        <v>673850</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3710828738350976</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3465340662024186</v>
+        <v>0.3480193558132121</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3964770201819701</v>
+        <v>0.3968898373571462</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>137925</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>117169</v>
+        <v>117903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161612</v>
+        <v>159881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1565747979717545</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1330122009097944</v>
+        <v>0.1338460533084032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.183465216472928</v>
+        <v>0.1814994245023757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -1405,19 +1405,19 @@
         <v>103627</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86830</v>
+        <v>85062</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121071</v>
+        <v>122862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1268476233457827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1062873483210633</v>
+        <v>0.1041231016696113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1482011581625452</v>
+        <v>0.1503929443162855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>264</v>
@@ -1426,19 +1426,19 @@
         <v>241552</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>210717</v>
+        <v>212620</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269820</v>
+        <v>273805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1422710578629738</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1241100734364536</v>
+        <v>0.125230678907137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1589206508738586</v>
+        <v>0.1612678424572732</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>96299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>77983</v>
+        <v>78578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>118201</v>
+        <v>119170</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1093199043077872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08852793243462675</v>
+        <v>0.08920294264323053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1341836802595975</v>
+        <v>0.1352836282135875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>142</v>
@@ -1476,19 +1476,19 @@
         <v>107891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89039</v>
+        <v>90554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126801</v>
+        <v>126539</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1320680043969606</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.108991219056448</v>
+        <v>0.1108453928046147</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1552152028034169</v>
+        <v>0.1548937430554935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>236</v>
@@ -1497,19 +1497,19 @@
         <v>204190</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>180010</v>
+        <v>179216</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>232848</v>
+        <v>234617</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.120265542961243</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1060238779549523</v>
+        <v>0.1055560997155573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1371449189098692</v>
+        <v>0.1381870037910747</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>23284</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14727</v>
+        <v>15004</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36414</v>
+        <v>35374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1074102449081154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06793568714580238</v>
+        <v>0.06921384048137369</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1679815145375129</v>
+        <v>0.1631823558040551</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1622,19 +1622,19 @@
         <v>25955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17945</v>
+        <v>17429</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37794</v>
+        <v>37077</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.103049021076135</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0712491685487221</v>
+        <v>0.06919953297215982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1500565312158889</v>
+        <v>0.1472103934013763</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -1643,19 +1643,19 @@
         <v>49238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36704</v>
+        <v>36774</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65145</v>
+        <v>63647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1050663439558332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07831958676190338</v>
+        <v>0.07847009667553607</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1390078272106492</v>
+        <v>0.135811637872072</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>15254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8861</v>
+        <v>7915</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25244</v>
+        <v>25500</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07036789114287961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04087656617732284</v>
+        <v>0.03651226506547181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1164541974343575</v>
+        <v>0.1176334568172755</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -1693,19 +1693,19 @@
         <v>35524</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26363</v>
+        <v>26264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47673</v>
+        <v>47183</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1410435015046628</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1046695648706986</v>
+        <v>0.1042760308706774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1892808763436953</v>
+        <v>0.1873354050166599</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1714,19 +1714,19 @@
         <v>50778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38340</v>
+        <v>38640</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66120</v>
+        <v>65057</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1083518692215488</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08181143854725759</v>
+        <v>0.08245085833986643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1410899291792309</v>
+        <v>0.138820821920979</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>106085</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>90412</v>
+        <v>91083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>121175</v>
+        <v>121987</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4893791839704809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4170776782512237</v>
+        <v>0.4201734247614708</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5589910565802192</v>
+        <v>0.5627364086336019</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>166</v>
@@ -1764,19 +1764,19 @@
         <v>115484</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>101542</v>
+        <v>101615</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129238</v>
+        <v>128138</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4585131292997542</v>
+        <v>0.4585131292997543</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4031596789984703</v>
+        <v>0.4034491911768611</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5131206363292228</v>
+        <v>0.5087551987408965</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>267</v>
@@ -1785,19 +1785,19 @@
         <v>221569</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>199958</v>
+        <v>201411</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>241366</v>
+        <v>241675</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4727904974634048</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4266771112733439</v>
+        <v>0.4297778636167416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5150344961005082</v>
+        <v>0.5156950001961798</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>35938</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25916</v>
+        <v>26082</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50441</v>
+        <v>48219</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1657844072281613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1195525574221714</v>
+        <v>0.1203210690445001</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2326886848156744</v>
+        <v>0.2224394757204286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1835,19 +1835,19 @@
         <v>33079</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25187</v>
+        <v>24328</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42749</v>
+        <v>43316</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.131334729241257</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09999990330588217</v>
+        <v>0.09658930630894826</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1697283318493097</v>
+        <v>0.1719797685065798</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -1856,19 +1856,19 @@
         <v>69016</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56268</v>
+        <v>55485</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83936</v>
+        <v>85093</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1472697342487065</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1200659414786323</v>
+        <v>0.1183953014447978</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.179106261158315</v>
+        <v>0.1815745831038269</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>36214</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26495</v>
+        <v>25747</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48112</v>
+        <v>49587</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1670582727503628</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1222236529804609</v>
+        <v>0.1187728911484681</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2219475933443338</v>
+        <v>0.2287490046604774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -1906,19 +1906,19 @@
         <v>41825</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31715</v>
+        <v>32416</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53279</v>
+        <v>52900</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1660596188781908</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1259213790509698</v>
+        <v>0.1287029153160562</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2115375767484996</v>
+        <v>0.2100318683884767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>99</v>
@@ -1927,19 +1927,19 @@
         <v>78039</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62532</v>
+        <v>63922</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94398</v>
+        <v>96248</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1665215551105068</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.133433342689347</v>
+        <v>0.1364000084812718</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2014291637520422</v>
+        <v>0.2053778259717836</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>128215</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>101487</v>
+        <v>102552</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160413</v>
+        <v>162029</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09461604227316335</v>
+        <v>0.09461604227316336</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07489184307267119</v>
+        <v>0.0756778478490592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1183757658586228</v>
+        <v>0.119568766401252</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>186</v>
@@ -2052,19 +2052,19 @@
         <v>136520</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116307</v>
+        <v>116039</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158900</v>
+        <v>159298</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09468766514170718</v>
+        <v>0.09468766514170716</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08066810353334158</v>
+        <v>0.08048269411097156</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1102098674356091</v>
+        <v>0.1104860422102892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>279</v>
@@ -2073,19 +2073,19 @@
         <v>264735</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230101</v>
+        <v>227217</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>302716</v>
+        <v>306041</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09465296353492438</v>
+        <v>0.09465296353492436</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0822698912129624</v>
+        <v>0.08123886896731503</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1082327016133904</v>
+        <v>0.1094212918154751</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>333148</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>302613</v>
+        <v>299260</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>368024</v>
+        <v>369845</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2458453729937444</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2233116584643078</v>
+        <v>0.22083785898504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2715819887226081</v>
+        <v>0.2729255773095284</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>673</v>
@@ -2123,19 +2123,19 @@
         <v>443173</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>411492</v>
+        <v>409907</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>472741</v>
+        <v>474846</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3073767888070933</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2854032329642842</v>
+        <v>0.2843041705002582</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3278848994674482</v>
+        <v>0.329344404110535</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1001</v>
@@ -2144,19 +2144,19 @@
         <v>776321</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>730383</v>
+        <v>732590</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>821337</v>
+        <v>822938</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2775645369417837</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2611399030081483</v>
+        <v>0.2619288704256758</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2936594523731877</v>
+        <v>0.294231794938119</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>517923</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>482662</v>
+        <v>482711</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>559497</v>
+        <v>557488</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3821987939783793</v>
+        <v>0.3821987939783792</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3561783980973031</v>
+        <v>0.3562144579944976</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4128782976047148</v>
+        <v>0.4113958029218336</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>706</v>
@@ -2194,19 +2194,19 @@
         <v>464631</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>436206</v>
+        <v>433942</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>494525</v>
+        <v>494495</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3222595940305788</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3025447994155022</v>
+        <v>0.3009740862125289</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3429937501244322</v>
+        <v>0.342973006921896</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1232</v>
@@ -2215,19 +2215,19 @@
         <v>982554</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>936729</v>
+        <v>935132</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1032440</v>
+        <v>1032938</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3513004100402329</v>
+        <v>0.351300410040233</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3349163627167099</v>
+        <v>0.3343453502311245</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3691365557281917</v>
+        <v>0.3693146132229105</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>203344</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>176305</v>
+        <v>177169</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233262</v>
+        <v>232941</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1500570025633751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1301036954230125</v>
+        <v>0.1307411980868619</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1721344831005406</v>
+        <v>0.171897766028894</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>263</v>
@@ -2265,19 +2265,19 @@
         <v>191067</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>169594</v>
+        <v>169733</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>213341</v>
+        <v>214489</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1325205409731966</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1176274498801697</v>
+        <v>0.1177237774474303</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.147969179225594</v>
+        <v>0.1487657549975256</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>464</v>
@@ -2286,19 +2286,19 @@
         <v>394411</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>362146</v>
+        <v>361095</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>434812</v>
+        <v>430658</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1410170366712415</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1294808613389113</v>
+        <v>0.1291054127645396</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1554619023183562</v>
+        <v>0.1539765417442989</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>172483</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>147589</v>
+        <v>147397</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>198079</v>
+        <v>199522</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1272827881913378</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1089126866453397</v>
+        <v>0.1087712413249956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1461717416028525</v>
+        <v>0.1472361750762809</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>299</v>
@@ -2336,19 +2336,19 @@
         <v>206400</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>184143</v>
+        <v>183752</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>230963</v>
+        <v>229637</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.143155411047424</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1277182797005851</v>
+        <v>0.1274468616394348</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1601920550174782</v>
+        <v>0.1592722234684892</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>485</v>
@@ -2357,19 +2357,19 @@
         <v>378883</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>343672</v>
+        <v>347361</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>411937</v>
+        <v>414647</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1354650528118176</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1228759011641682</v>
+        <v>0.1241948478484496</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1472830513362469</v>
+        <v>0.1482520234003092</v>
       </c>
     </row>
     <row r="27">
